--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\Research\app-designer\app\config\tables\registration\forms\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB51EDF4-3B25-4671-A7EC-2D2B3C92BD1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3855E-4EE1-494D-B491-F4759D256845}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18E54974-4CA3-4ADB-B752-9A6313405798}"/>
   </bookViews>
@@ -95,33 +95,21 @@
     <t>first_name</t>
   </si>
   <si>
-    <t>What is your first name?</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
     <t>middle_name</t>
   </si>
   <si>
-    <t>What is your middle name?</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
     <t>last_name</t>
   </si>
   <si>
-    <t>What is your surname?</t>
-  </si>
-  <si>
     <t>select_one</t>
   </si>
   <si>
-    <t>What is your assigned birth sex?</t>
-  </si>
-  <si>
     <t>SexChoice</t>
   </si>
   <si>
@@ -137,45 +125,27 @@
     <t>display.hint.text</t>
   </si>
   <si>
-    <t>When were you born?</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>Where do you live?</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
-    <t>What country do you live in?</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>telephone_num</t>
   </si>
   <si>
-    <t>What is your telephone number?</t>
-  </si>
-  <si>
     <t>Please enter without dashes. Ex. 1234567890</t>
   </si>
   <si>
     <t>father</t>
   </si>
   <si>
-    <t>What is your father's name?</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
-    <t>What is your mother's name?</t>
-  </si>
-  <si>
     <t>registration</t>
   </si>
   <si>
@@ -189,6 +159,36 @@
   </si>
   <si>
     <t>Please write down this ID and don't lose it</t>
+  </si>
+  <si>
+    <t>What is your client's first name?</t>
+  </si>
+  <si>
+    <t>What is your client's middle name?</t>
+  </si>
+  <si>
+    <t>What is your client's surname?</t>
+  </si>
+  <si>
+    <t>What is your client's assigned birth sex?</t>
+  </si>
+  <si>
+    <t>When was your client born?</t>
+  </si>
+  <si>
+    <t>Where does your client live?</t>
+  </si>
+  <si>
+    <t>What country did your client live in?</t>
+  </si>
+  <si>
+    <t>What is your client's telephone number?</t>
+  </si>
+  <si>
+    <t>What is your client's father's name?</t>
+  </si>
+  <si>
+    <t>What is your client's mother's name?</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -593,13 +593,13 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -610,12 +610,12 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -623,20 +623,20 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -644,65 +644,65 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
@@ -710,20 +710,20 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
@@ -731,44 +731,44 @@
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
@@ -776,20 +776,20 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
@@ -797,15 +797,15 @@
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +841,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\Research\app-designer\app\config\tables\registration\forms\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3855E-4EE1-494D-B491-F4759D256845}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DA2777-F6C4-44C4-BC65-C021806312CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18E54974-4CA3-4ADB-B752-9A6313405798}"/>
+    <workbookView xWindow="970" yWindow="530" windowWidth="14400" windowHeight="7810" xr2:uid="{18E54974-4CA3-4ADB-B752-9A6313405798}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -155,40 +155,40 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>The UUID of the client is:</t>
-  </si>
-  <si>
     <t>Please write down this ID and don't lose it</t>
   </si>
   <si>
-    <t>What is your client's first name?</t>
-  </si>
-  <si>
-    <t>What is your client's middle name?</t>
-  </si>
-  <si>
-    <t>What is your client's surname?</t>
-  </si>
-  <si>
-    <t>What is your client's assigned birth sex?</t>
-  </si>
-  <si>
-    <t>When was your client born?</t>
-  </si>
-  <si>
-    <t>Where does your client live?</t>
-  </si>
-  <si>
-    <t>What country did your client live in?</t>
-  </si>
-  <si>
-    <t>What is your client's telephone number?</t>
-  </si>
-  <si>
-    <t>What is your client's father's name?</t>
-  </si>
-  <si>
-    <t>What is your client's mother's name?</t>
+    <t>Please choose an ID for the patient:</t>
+  </si>
+  <si>
+    <t>What is your patient's first name?</t>
+  </si>
+  <si>
+    <t>What is your patient's middle name?</t>
+  </si>
+  <si>
+    <t>What is your patient's surname?</t>
+  </si>
+  <si>
+    <t>What is your patient's assigned birth sex?</t>
+  </si>
+  <si>
+    <t>When was your patient born?</t>
+  </si>
+  <si>
+    <t>Where does your patient live?</t>
+  </si>
+  <si>
+    <t>What country does your patient live in?</t>
+  </si>
+  <si>
+    <t>What is your patient's telephone number?</t>
+  </si>
+  <si>
+    <t>What is your patient's father's name?</t>
+  </si>
+  <si>
+    <t>What is your patient's mother's name?</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897AAC8-9D28-46CB-A7FE-82CEFB9B5D98}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,10 +596,10 @@
         <v>39</v>
       </c>
       <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
